--- a/data/trans_bre/IP1001-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1001-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>38,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-36,79%</t>
+          <t>-51,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-21,54%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-44,65%</t>
+          <t>-11,65%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 3,31</t>
+          <t>-1,36; 2,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,18</t>
+          <t>-3,49; 0,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,61</t>
+          <t>-1,74; 2,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 0,46</t>
+          <t>-3,08; 2,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 105,65</t>
+          <t>-60,07; 487,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,64; 64,88</t>
+          <t>-89,51; 101,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-68,26; 72,04</t>
+          <t>-62,3; 256,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-78,55; 20,03</t>
+          <t>-75,75; 195,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-51,23%</t>
+          <t>-36,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>-21,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,65%</t>
+          <t>-44,65%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,61</t>
+          <t>-2,56; 3,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 0,8</t>
+          <t>-3,75; 1,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 2,51</t>
+          <t>-3,19; 1,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 2,12</t>
+          <t>-4,76; 0,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,07; 487,18</t>
+          <t>-45,05; 105,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-89,51; 101,51</t>
+          <t>-76,64; 64,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-62,3; 256,41</t>
+          <t>-68,26; 72,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-75,75; 195,39</t>
+          <t>-78,55; 20,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1001-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1001-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-14,76%</t>
+          <t>-16,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>96,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-24,22%</t>
+          <t>-51,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-10,7%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,7</t>
+          <t>-3,67; 2,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,65</t>
+          <t>-0,96; 3,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 1,53</t>
+          <t>-2,42; 0,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,94</t>
+          <t>-6,27; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-86,83; 352,12</t>
+          <t>-100,0; 409,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,05; 370,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-84,67; 189,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>-21,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-51,23%</t>
+          <t>-33,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>-6,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-11,65%</t>
+          <t>5,37%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,61</t>
+          <t>-1,98; 1,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 0,8</t>
+          <t>-3,33; 1,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 2,51</t>
+          <t>-2,29; 1,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 2,12</t>
+          <t>-2,21; 2,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,07; 487,18</t>
+          <t>-88,37; 229,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,51; 101,51</t>
+          <t>-84,28; 95,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,3; 256,41</t>
+          <t>-71,43; 159,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-75,75; 195,39</t>
+          <t>-81,12; 491,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-36,79%</t>
+          <t>-40,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-21,54%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-44,65%</t>
+          <t>-28,43%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 3,31</t>
+          <t>-3,85; 3,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,18</t>
+          <t>-4,01; 1,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,61</t>
+          <t>-2,08; 5,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 0,46</t>
+          <t>-4,92; 2,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 105,65</t>
+          <t>-64,62; 148,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-76,64; 64,88</t>
+          <t>-97,01; 271,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-68,26; 72,04</t>
+          <t>-47,29; 244,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-78,55; 20,03</t>
+          <t>-81,1; 126,54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>58,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-28,83%</t>
+          <t>-39,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,43%</t>
+          <t>-65,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-35,87%</t>
+          <t>-45,92%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1,71</t>
+          <t>-1,38; 5,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,57</t>
+          <t>-5,08; 1,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,03</t>
+          <t>-5,09; 0,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,34</t>
+          <t>-4,94; 0,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,0; 81,16</t>
+          <t>-31,3; 251,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,45; 30,22</t>
+          <t>-83,31; 60,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,94; 51,19</t>
+          <t>-100,0; 52,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,05; 18,86</t>
+          <t>-78,85; 49,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13,05%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-28,83%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-13,43%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-35,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 1,72</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 0,58</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 1,0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 0,18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-32,92; 88,89</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-61,35; 31,81</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-51,78; 53,04</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-69,91; 11,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP1001-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1001-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 2,87</t>
+          <t>-3,64; 3,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,24</t>
+          <t>-0,98; 3,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 0,0</t>
+          <t>-6,0; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 409,13</t>
+          <t>-100,0; 423,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,1</t>
+          <t>-1,94; 1,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,2</t>
+          <t>-3,03; 1,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,94</t>
+          <t>-2,04; 1,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 2,54</t>
+          <t>-2,37; 2,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-88,37; 229,02</t>
+          <t>-88,3; 279,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,28; 95,42</t>
+          <t>-80,02; 110,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,43; 159,31</t>
+          <t>-71,44; 174,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-81,12; 491,71</t>
+          <t>-81,47; 329,12</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 3,65</t>
+          <t>-3,88; 3,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 1,47</t>
+          <t>-4,02; 1,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 5,03</t>
+          <t>-2,1; 4,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 2,05</t>
+          <t>-5,61; 1,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-64,62; 148,6</t>
+          <t>-62,82; 155,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-97,01; 271,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-47,29; 244,52</t>
+          <t>-49,15; 225,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-81,1; 126,54</t>
+          <t>-85,76; 100,46</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 5,14</t>
+          <t>-1,2; 5,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 1,45</t>
+          <t>-4,97; 1,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 0,29</t>
+          <t>-5,14; 0,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 0,84</t>
+          <t>-5,01; 0,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,3; 251,33</t>
+          <t>-30,39; 298,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,31; 60,92</t>
+          <t>-82,46; 86,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 52,77</t>
+          <t>-100,0; 53,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-78,85; 49,44</t>
+          <t>-78,49; 35,02</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,72</t>
+          <t>-1,35; 1,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,58</t>
+          <t>-2,07; 0,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,0</t>
+          <t>-1,67; 0,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 0,18</t>
+          <t>-2,88; 0,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 88,89</t>
+          <t>-39,46; 78,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-61,35; 31,81</t>
+          <t>-60,43; 39,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-51,78; 53,04</t>
+          <t>-51,5; 45,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-69,91; 11,2</t>
+          <t>-66,38; 16,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1001-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1001-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,02</t>
+          <t>-3,51; 3,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 3,18</t>
+          <t>-0,95; 3,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 0,0</t>
+          <t>-6,96; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 423,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>-1,77%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,13</t>
+          <t>-1,96; 1,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 1,32</t>
+          <t>-3,25; 1,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,95</t>
+          <t>-2,27; 2,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 2,52</t>
+          <t>-2,53; 2,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-88,3; 279,94</t>
+          <t>-88,61; 233,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,02; 110,73</t>
+          <t>-82,14; 97,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,44; 174,22</t>
+          <t>-71,88; 176,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-81,47; 329,12</t>
+          <t>-78,95; 406,47</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-28,43%</t>
+          <t>-38,05%</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,84</t>
+          <t>-3,84; 3,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,46</t>
+          <t>-4,03; 1,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 4,39</t>
+          <t>-1,88; 4,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 1,86</t>
+          <t>-7,56; 1,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,82; 155,2</t>
+          <t>-63,8; 175,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-49,15; 225,66</t>
+          <t>-45,39; 230,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-85,76; 100,46</t>
+          <t>-90,64; 94,94</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-45,92%</t>
+          <t>-48,45%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,54</t>
+          <t>-1,14; 5,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 1,57</t>
+          <t>-4,84; 1,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 0,3</t>
+          <t>-5,43; 0,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 0,79</t>
+          <t>-5,46; 0,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 298,62</t>
+          <t>-28,26; 284,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-82,46; 86,19</t>
+          <t>-81,71; 69,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 53,47</t>
+          <t>-94,65; 60,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-78,49; 35,02</t>
+          <t>-81,65; 32,27</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-35,87%</t>
+          <t>-40,57%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,63</t>
+          <t>-1,11; 1,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,65</t>
+          <t>-2,11; 0,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,88</t>
+          <t>-1,66; 1,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 0,32</t>
+          <t>-3,3; 0,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,46; 78,71</t>
+          <t>-33,0; 81,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-60,43; 39,4</t>
+          <t>-61,45; 30,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-51,5; 45,73</t>
+          <t>-50,94; 51,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-66,38; 16,49</t>
+          <t>-66,49; 12,66</t>
         </is>
       </c>
     </row>
